--- a/biology/Botanique/Ceratonia/Ceratonia.xlsx
+++ b/biology/Botanique/Ceratonia/Ceratonia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ceratonia est un petit genre d'arbres à fleurs de la famille des Caesalpiniaceae (tribu des Umtizieae) dans la classification classique de Cronquist (1981)[2], ou de la famille des Fabaceae, sous-famille des Caesalpinioideae  dans la classification phylogénétique APG II (2003)[3].
-Le genre est endémique de la région méditerranéenne et du Moyen-Orient. Son membre le plus connu, le caroubier, est cultivé pour ses gousses et a été largement introduit dans des régions aux climats similaires. Le genre a longtemps été considéré comme monotypique, mais une deuxième espèce, Ceratonia oreothauma, a été identifiée en 1979 à Oman et en Somalie[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ceratonia est un petit genre d'arbres à fleurs de la famille des Caesalpiniaceae (tribu des Umtizieae) dans la classification classique de Cronquist (1981), ou de la famille des Fabaceae, sous-famille des Caesalpinioideae  dans la classification phylogénétique APG II (2003).
+Le genre est endémique de la région méditerranéenne et du Moyen-Orient. Son membre le plus connu, le caroubier, est cultivé pour ses gousses et a été largement introduit dans des régions aux climats similaires. Le genre a longtemps été considéré comme monotypique, mais une deuxième espèce, Ceratonia oreothauma, a été identifiée en 1979 à Oman et en Somalie.
 Un nom obsolète pour Ceratonia était Acalis.
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Espèce fossile</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">† Les fossiles de Ceratonia emarginata sont connus au Miocène en Suisse et en Hongrie[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">† Les fossiles de Ceratonia emarginata sont connus au Miocène en Suisse et en Hongrie.
 </t>
         </is>
       </c>
@@ -544,11 +558,13 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Il existe 2 espèces de caroubiers dont la divergence date de 6 millions d’années environ[6]. Elles possèderaient un ancêtre commun pour lequel le climat est devenu défavorable et qui se serait réfugié dans 2 zones distinctes : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Il existe 2 espèces de caroubiers dont la divergence date de 6 millions d’années environ. Elles possèderaient un ancêtre commun pour lequel le climat est devenu défavorable et qui se serait réfugié dans 2 zones distinctes : 
 le bassin méditerranéen qui a donné Ceratonia siliqua
-et l’autre dans le sud de la péninsule arabique et la corne de l’Afrique qui a donné Ceratonia oreothauma[7].</t>
+et l’autre dans le sud de la péninsule arabique et la corne de l’Afrique qui a donné Ceratonia oreothauma.</t>
         </is>
       </c>
     </row>
@@ -576,7 +592,9 @@
           <t>Images</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Fruit
